--- a/data/trans_camb/IP1008-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1008-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,7</t>
+          <t>-2,18; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,19</t>
+          <t>-2,19; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,86</t>
+          <t>-1,2; 0,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,68</t>
+          <t>-1,39; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,0</t>
+          <t>-1,14; 0,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,6</t>
+          <t>-1,27; 0,12</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,21%</t>
+          <t>-39,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>134,91%</t>
+          <t>-47,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>-71,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>-75,98%</t>
         </is>
       </c>
     </row>
@@ -886,24 +886,24 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,02; 1139,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 397,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 629,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,0</t>
+          <t>-0,48; 1,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,0</t>
+          <t>-0,75; 1,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,72</t>
+          <t>-1,49; 0,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,6</t>
+          <t>-0,36; 2,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,18</t>
+          <t>-0,65; 1,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,12</t>
+          <t>-0,28; 1,6</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,45%</t>
+          <t>-29,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-47,81%</t>
+          <t>134,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-71,99%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-75,98%</t>
+          <t>99,12%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,02; 1139,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,1; 397,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,18; 629,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1008-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1008-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,51</t>
+          <t>-1,86; 0,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,0</t>
+          <t>-3,1; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,72</t>
+          <t>-0,92; 0,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,33</t>
+          <t>-1,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-54,07%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -692,17 +692,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,72%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,0</t>
+          <t>-1,98; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,0</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,72</t>
+          <t>-0,43; 1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,6</t>
+          <t>-0,35; 1,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,18</t>
+          <t>-0,65; 0,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,12</t>
+          <t>-0,65; 0,58</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,45%</t>
+          <t>149,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,81%</t>
+          <t>157,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-71,99%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-75,98%</t>
+          <t>-25,61%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,48</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,7</t>
+          <t>-2,94; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,19</t>
+          <t>-3,47; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,86</t>
+          <t>-0,76; 2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,68</t>
+          <t>-0,42; 2,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,0</t>
+          <t>-1,41; 0,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,6</t>
+          <t>-1,23; 0,94</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,21%</t>
+          <t>117,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>134,91%</t>
+          <t>196,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>-36,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>-12,55%</t>
         </is>
       </c>
     </row>
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,02; 1139,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 397,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 629,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,41</t>
+          <t>-0,18; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,15</t>
+          <t>-0,33; 2,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,67</t>
+          <t>-3,23; -0,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,22</t>
+          <t>-1,3; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,34</t>
+          <t>-0,84; 1,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,5</t>
+          <t>-0,44; 1,95</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>341,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,89%</t>
+          <t>239,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>87,18%</t>
+          <t>39,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>89,6%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-80,72; 188,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,98; 372,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 698,16</t>
+          <t>-84,34; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 108,17</t>
+          <t>-83,51; 472,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 167,65</t>
+          <t>-55,35; 799,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 0,49</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 0,16</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 0,57</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 1,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 0,34</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 0,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-23,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-53,89%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>87,18%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-10,86%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-84,33; 227,43</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-93,93; 152,73</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-87,49; 323,92</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-49,5; 614,15</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-66,03; 114,94</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-55,3; 182,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1008-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1008-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,94</t>
+          <t>-2,32; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,0</t>
+          <t>-2,91; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,91</t>
+          <t>-0,77; 0,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,0</t>
+          <t>-1,9; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,0</t>
+          <t>-1,87; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,91</t>
+          <t>-0,46; 1,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,79</t>
+          <t>-0,26; 1,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,61</t>
+          <t>-0,64; 0,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,58</t>
+          <t>-0,69; 0,46</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,0</t>
+          <t>-3,28; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,0</t>
+          <t>-2,89; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,74</t>
+          <t>-0,76; 2,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,83</t>
+          <t>-0,5; 2,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,63</t>
+          <t>-1,45; 0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,94</t>
+          <t>-1,14; 0,94</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,04</t>
+          <t>0,01; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,77</t>
+          <t>-0,33; 2,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,34</t>
+          <t>-2,79; -0,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,57</t>
+          <t>-1,15; 2,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,15</t>
+          <t>-0,82; 1,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,95</t>
+          <t>-0,43; 1,85</t>
         </is>
       </c>
     </row>
@@ -1198,17 +1198,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-84,34; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,51; 472,52</t>
+          <t>-100,0; 542,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 799,5</t>
+          <t>-47,56; 739,94</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,49</t>
+          <t>-0,79; 0,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,16</t>
+          <t>-0,95; 0,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,57</t>
+          <t>-0,55; 0,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,19</t>
+          <t>-0,27; 1,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,34</t>
+          <t>-0,47; 0,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,52</t>
+          <t>-0,38; 0,52</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-84,33; 227,43</t>
+          <t>-84,78; 175,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-93,93; 152,73</t>
+          <t>-100,0; 121,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,49; 323,92</t>
+          <t>-78,31; 326,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 614,15</t>
+          <t>-40,07; 573,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 114,94</t>
+          <t>-64,01; 140,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,3; 182,86</t>
+          <t>-56,12; 163,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1008-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1008-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,11</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,93</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>-2,34; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,9</t>
+          <t>-0,84; 0,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,0</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-19,68%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,54</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,0</t>
+          <t>-0,26; 1,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-0,36; 1,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,87; 0,0</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 1,62</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,84</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,59</t>
+          <t>-0,65; 0,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,46</t>
+          <t>-0,65; 0,47</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>149,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>157,72%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>149,08%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>157,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,96</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,0</t>
+          <t>-0,77; 2,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,0</t>
+          <t>-0,57; 2,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,52</t>
+          <t>-3,08; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,85</t>
+          <t>-3,62; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,64</t>
+          <t>-1,3; 0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,94</t>
+          <t>-1,43; 0,93</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>117,42%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>196,46%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>117,42%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>196,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,13</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,79</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,26</t>
+          <t>-2,93; -0,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,61</t>
+          <t>-1,4; 2,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; -0,34</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,51</t>
+          <t>-0,33; 2,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,17</t>
+          <t>-0,86; 1,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,85</t>
+          <t>-0,45; 1,92</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>341,81%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>239,51%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>39,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1198,17 +1198,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 542,61</t>
+          <t>-84,55; 566,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 739,94</t>
+          <t>-53,26; 753,9</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-0,13</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,41</t>
+          <t>-0,57; 0,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-0,27; 1,22</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 0,41</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>-0,95; 0,15</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 0,62</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 1,15</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,41</t>
+          <t>-0,49; 0,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,52</t>
+          <t>-0,39; 0,5</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>87,18%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-23,05%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-53,89%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>87,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-84,78; 175,35</t>
+          <t>-77,98; 372,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,52</t>
+          <t>-46,07; 698,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,31; 326,78</t>
+          <t>-80,72; 188,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,07; 573,86</t>
+          <t>-100,0; 121,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 140,23</t>
+          <t>-62,78; 108,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 163,34</t>
+          <t>-56,52; 167,65</t>
         </is>
       </c>
     </row>
